--- a/database/data_type_mapping.xlsx
+++ b/database/data_type_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Suntech/ProjectsGroup/document/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B81B4C-008C-7148-BB18-C90F375CE731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA68F24-39F6-8F48-BE60-B60CAE9F5AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
   </bookViews>
   <sheets>
     <sheet name="Post-Java" sheetId="16" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>bigint</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2954638E-D6B7-7443-AE57-1CD7E4907331}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +542,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -544,7 +550,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -552,19 +558,27 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -583,10 +597,18 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
